--- a/InputData/elec/PTCF/Peak Time Capacity Factors_HK.xlsx
+++ b/InputData/elec/PTCF/Peak Time Capacity Factors_HK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\eps-1.4.3-hk-wipB\eps-1.4.3-hk-wipB\InputData\elec\PTCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\elec\PTCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{7717936A-F6D6-4A42-BD94-03BB97DE3C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B629911C-458A-4111-A7C7-B71360158B99}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{7717936A-F6D6-4A42-BD94-03BB97DE3C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2746BC94-E1F4-4EAF-B11D-5156212F1A96}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>natural gas nonpeaker</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>Hong Kong Engineer</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
   </si>
 </sst>
 </file>
@@ -1858,10 +1867,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1984,6 +1993,30 @@
         <v>0.22</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1991,24 +2024,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2242,10 +2257,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37C9F99E-FADE-4B67-B837-8C6119D974B6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B95D48DA-1998-4421-BBD9-FBF31CA0CF05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2269,21 +2314,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B95D48DA-1998-4421-BBD9-FBF31CA0CF05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37C9F99E-FADE-4B67-B837-8C6119D974B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>